--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23011"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4EC0AFB-7146-4D78-B158-7F3A7B9001D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72986654-F257-4F49-B071-50FEA05B8D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="121">
   <si>
     <t>改定履歴</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>kandam</t>
+  </si>
+  <si>
+    <t>全て</t>
+  </si>
+  <si>
+    <t>指摘点の修正 (https://github.com/kamdam13/quelcode-db/pull/2#pullrequestreview-432121596)</t>
   </si>
   <si>
     <t>table_names</t>
@@ -631,9 +637,6 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -649,7 +652,7 @@
     <t>自己紹介</t>
   </si>
   <si>
-    <t>comment</t>
+    <t>introduction</t>
   </si>
   <si>
     <t>電話番号(携帯)</t>
@@ -664,7 +667,7 @@
     <t>work_phone_number</t>
   </si>
   <si>
-    <t>論理削除フラグ</t>
+    <t>削除フラグ</t>
   </si>
   <si>
     <t>is_deleted</t>
@@ -679,7 +682,7 @@
     <t>作成日時</t>
   </si>
   <si>
-    <t>created</t>
+    <t>created_at</t>
   </si>
   <si>
     <t>datetime</t>
@@ -688,13 +691,10 @@
     <t>更新日時</t>
   </si>
   <si>
-    <t>modified</t>
+    <t>modified_at</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>rooms</t>
+    <t>chatrooms</t>
   </si>
   <si>
     <t>チャットルームの情報を保持する</t>
@@ -754,10 +754,13 @@
     <t>PK,FK</t>
   </si>
   <si>
-    <t>room_id</t>
+    <t>chatroom_id</t>
   </si>
   <si>
     <t>参加日時</t>
+  </si>
+  <si>
+    <t>participated_at</t>
   </si>
   <si>
     <t>tasks</t>
@@ -812,7 +815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -899,6 +902,12 @@
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック "/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -959,10 +968,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1014,14 +1024,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1031,8 +1033,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1251,8 +1263,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1362,7 +1374,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="35">
+      <c r="A4" s="29">
         <v>43999</v>
       </c>
       <c r="B4" s="7"/>
@@ -1396,10 +1408,18 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="8">
+        <v>43999</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -30125,8 +30145,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" location="pullrequestreview-432121596" display="https://github.com/kamdam13/quelcode-db/pull/2#pullrequestreview-432121596" xr:uid="{A8B66C46-9691-40C4-9208-B30A9A0B44C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -30155,168 +30178,168 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="25"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="25"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30326,23 +30349,23 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30351,123 +30374,123 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="25"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="25"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30506,82 +30529,82 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30597,7 +30620,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30613,7 +30636,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30629,7 +30652,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30645,7 +30668,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30661,7 +30684,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30677,7 +30700,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30693,7 +30716,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30709,7 +30732,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30725,7 +30748,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30741,7 +30764,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30757,7 +30780,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30793,7 +30816,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30805,7 +30828,7 @@
     <col min="5" max="5" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
     <col min="9" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
@@ -30813,277 +30836,275 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="33" t="s">
-        <v>55</v>
+      <c r="H5" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="33" t="s">
-        <v>55</v>
+      <c r="H6" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="33" t="s">
-        <v>55</v>
+      <c r="H7" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="33" t="s">
-        <v>55</v>
+      <c r="H8" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9" s="16">
         <v>1000</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="34"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="34"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" s="16">
         <v>13</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="34"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -31091,65 +31112,65 @@
       <c r="G12" s="15">
         <v>0</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>55</v>
+      <c r="H12" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="33" t="s">
-        <v>55</v>
+      <c r="H13" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="33" t="s">
-        <v>55</v>
+      <c r="H14" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31159,13 +31180,13 @@
       <c r="E15" s="15"/>
       <c r="F15" s="17"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="33"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31175,7 +31196,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
@@ -31201,7 +31222,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31213,7 +31234,7 @@
     <col min="5" max="5" width="9.140625" style="23"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
     <col min="9" max="10" width="14.42578125" style="23"/>
     <col min="11" max="11" width="19.140625" style="23" customWidth="1"/>
     <col min="12" max="16384" width="14.42578125" style="23"/>
@@ -31223,83 +31244,83 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -31308,54 +31329,54 @@
         <v>84</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="33" t="s">
-        <v>55</v>
+      <c r="H5" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="33" t="s">
-        <v>55</v>
+      <c r="H6" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31367,19 +31388,19 @@
         <v>86</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="33"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31391,7 +31412,7 @@
         <v>88</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -31399,8 +31420,8 @@
       <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>55</v>
+      <c r="H8" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -31409,7 +31430,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31421,7 +31442,7 @@
         <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31429,8 +31450,8 @@
       <c r="G9" s="20">
         <v>0</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>55</v>
+      <c r="H9" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -31439,19 +31460,19 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -31459,41 +31480,41 @@
       <c r="G10" s="20">
         <v>0</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>55</v>
+      <c r="H10" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="34" t="s">
-        <v>55</v>
+      <c r="H11" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31505,14 +31526,14 @@
         <v>94</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="33" t="s">
-        <v>55</v>
+      <c r="H12" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>95</v>
@@ -31521,31 +31542,31 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="33" t="s">
-        <v>55</v>
+      <c r="H13" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31557,14 +31578,14 @@
         <v>97</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16">
         <v>11</v>
       </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="33" t="s">
-        <v>55</v>
+      <c r="H14" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>95</v>
@@ -31573,7 +31594,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31583,13 +31604,13 @@
       <c r="E15" s="15"/>
       <c r="F15" s="17"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="33"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31599,7 +31620,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
@@ -31621,11 +31642,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31637,7 +31658,7 @@
     <col min="5" max="5" width="9.140625" style="23"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
     <col min="9" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
@@ -31645,102 +31666,102 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>100</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="33" t="s">
-        <v>55</v>
+      <c r="H5" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>101</v>
@@ -31749,7 +31770,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31761,14 +31782,14 @@
         <v>102</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="33" t="s">
-        <v>55</v>
+      <c r="H6" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>101</v>
@@ -31777,7 +31798,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31786,22 +31807,22 @@
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="33" t="s">
-        <v>55</v>
+      <c r="H7" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31811,13 +31832,13 @@
       <c r="E8" s="13"/>
       <c r="F8" s="16"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31827,13 +31848,13 @@
       <c r="E9" s="13"/>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="34"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31843,13 +31864,13 @@
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="34"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31859,13 +31880,13 @@
       <c r="E11" s="13"/>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="34"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31875,13 +31896,13 @@
       <c r="E12" s="13"/>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="33"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31891,13 +31912,13 @@
       <c r="E13" s="15"/>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="33"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31907,13 +31928,13 @@
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="33"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31923,13 +31944,13 @@
       <c r="E15" s="15"/>
       <c r="F15" s="17"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="33"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31939,10 +31960,13 @@
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
+    </row>
+    <row r="30" spans="9:9" ht="15.75" customHeight="1">
+      <c r="I30" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31964,8 +31988,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31977,7 +32001,7 @@
     <col min="5" max="5" width="9.140625" style="23"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
     <col min="9" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
@@ -31985,113 +32009,113 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="33" t="s">
-        <v>55</v>
+      <c r="H5" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32103,40 +32127,40 @@
         <v>86</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="33" t="s">
-        <v>55</v>
+      <c r="H6" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F7" s="16">
         <v>11</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="33" t="s">
-        <v>55</v>
+      <c r="H7" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>95</v>
@@ -32145,7 +32169,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32157,14 +32181,14 @@
         <v>102</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F8" s="16">
         <v>11</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="33" t="s">
-        <v>55</v>
+      <c r="H8" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>95</v>
@@ -32173,41 +32197,41 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="34"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -32215,29 +32239,29 @@
       <c r="G10" s="20">
         <v>0</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>55</v>
+      <c r="H10" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" s="16">
         <v>1</v>
@@ -32245,41 +32269,41 @@
       <c r="G11" s="20">
         <v>0</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>55</v>
+      <c r="H11" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="33" t="s">
-        <v>55</v>
+      <c r="H12" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32291,14 +32315,14 @@
         <v>94</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="17">
         <v>11</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="33" t="s">
-        <v>55</v>
+      <c r="H13" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>95</v>
@@ -32307,31 +32331,31 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="33" t="s">
-        <v>55</v>
+      <c r="H14" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32343,14 +32367,14 @@
         <v>97</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" s="17">
         <v>11</v>
       </c>
       <c r="G15" s="20"/>
-      <c r="H15" s="33" t="s">
-        <v>55</v>
+      <c r="H15" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I15" s="20" t="s">
         <v>95</v>
@@ -32359,7 +32383,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32369,7 +32393,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
@@ -32393,9 +32417,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32407,7 +32431,7 @@
     <col min="5" max="5" width="9.140625" style="23"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
     <col min="9" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
@@ -32415,113 +32439,113 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="33" t="s">
-        <v>55</v>
+      <c r="H5" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32533,14 +32557,14 @@
         <v>102</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="33" t="s">
-        <v>55</v>
+      <c r="H6" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>95</v>
@@ -32549,7 +32573,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32558,60 +32582,60 @@
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="33" t="s">
-        <v>55</v>
+      <c r="H7" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -32619,41 +32643,41 @@
       <c r="G9" s="20">
         <v>0</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>55</v>
+      <c r="H9" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="34" t="s">
-        <v>55</v>
+      <c r="H10" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32665,14 +32689,14 @@
         <v>94</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="34" t="s">
-        <v>55</v>
+      <c r="H11" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I11" s="20" t="s">
         <v>95</v>
@@ -32681,31 +32705,31 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="33" t="s">
-        <v>55</v>
+      <c r="H12" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32717,14 +32741,14 @@
         <v>97</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="17">
         <v>11</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="33" t="s">
-        <v>55</v>
+      <c r="H13" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>95</v>
@@ -32733,7 +32757,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32743,13 +32767,13 @@
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="33"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32759,13 +32783,13 @@
       <c r="E15" s="15"/>
       <c r="F15" s="17"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="33"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32775,7 +32799,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
